--- a/CS5783_MachineLearning/Assignment4/Asssignment4_Data.xlsx
+++ b/CS5783_MachineLearning/Assignment4/Asssignment4_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/saakur/Desktop/OSU_Teaching/Machine Learning/Assignments/Solutions/Assn1/Assn3/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Parker/Documents/College/CS 5783 Machine Learning/Assignment4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{FD104879-78B0-4345-A915-579F52A407CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{038C65A7-4563-4A4F-A0B2-9FF0765AFC0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16460" activeTab="1"/>
+    <workbookView xWindow="380" yWindow="760" windowWidth="34180" windowHeight="16460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Train" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="15">
   <si>
     <t>House ID</t>
   </si>
@@ -71,11 +71,17 @@
   <si>
     <t>Condo</t>
   </si>
+  <si>
+    <t>SD</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -393,7 +399,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -508,6 +514,86 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -553,8 +639,50 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="20" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" xfId="32" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="24" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="20" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" xfId="32" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="24" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="13" xfId="20" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="13" xfId="40" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" xfId="40" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="14" xfId="40" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="13" xfId="29" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" xfId="29" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="14" xfId="29" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="13" xfId="24" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="13" xfId="32" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="15" xfId="29" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="16" xfId="29" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="17" xfId="29" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="20" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="14" xfId="20" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="24" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="14" xfId="24" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" xfId="32" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="14" xfId="32" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -600,7 +728,18 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -909,16 +1048,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:T21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:J29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N28" sqref="N28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="20" max="20" width="12.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -950,660 +1092,958 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4">
         <v>4.9176000000000002</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4">
         <v>3.472</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="4">
         <v>0.998</v>
       </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1">
         <v>7</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="1">
         <v>4</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="1">
         <v>42</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3">
+    <row r="3" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>4</v>
+      </c>
+      <c r="B3" s="4">
+        <v>4.5572999999999997</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="4">
+        <v>4.05</v>
+      </c>
+      <c r="E3" s="4">
+        <v>1.232</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
+        <v>6</v>
+      </c>
+      <c r="H3" s="1">
+        <v>3</v>
+      </c>
+      <c r="I3" s="1">
+        <v>54</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>5</v>
+      </c>
+      <c r="B4" s="4">
+        <v>5.0597000000000003</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="4">
+        <v>4.4550000000000001</v>
+      </c>
+      <c r="E4" s="4">
+        <v>1.121</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>6</v>
+      </c>
+      <c r="H4" s="1">
+        <v>3</v>
+      </c>
+      <c r="I4" s="1">
+        <v>42</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="7"/>
+      <c r="M4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="N4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="O4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="P4" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q4" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="R4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="S4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="T4" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>10</v>
+      </c>
+      <c r="B5" s="4">
+        <v>14.4598</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="D5" s="4">
+        <v>12.8</v>
+      </c>
+      <c r="E5" s="4">
+        <v>3</v>
+      </c>
+      <c r="F5" s="1">
+        <v>2</v>
+      </c>
+      <c r="G5" s="1">
+        <v>9</v>
+      </c>
+      <c r="H5" s="1">
+        <v>5</v>
+      </c>
+      <c r="I5" s="1">
+        <v>14</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="M5" s="25"/>
+      <c r="N5" s="25"/>
+      <c r="O5" s="25"/>
+      <c r="P5" s="25"/>
+      <c r="Q5" s="25"/>
+      <c r="R5" s="25"/>
+      <c r="S5" s="25"/>
+      <c r="T5" s="26"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>15</v>
+      </c>
+      <c r="B6" s="4">
+        <v>5.05</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="4">
+        <v>5</v>
+      </c>
+      <c r="E6" s="4">
+        <v>1.02</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>5</v>
+      </c>
+      <c r="H6" s="1">
+        <v>2</v>
+      </c>
+      <c r="I6" s="1">
+        <v>46</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L6" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="M6" s="14">
+        <f>_xlfn.STDEV.P(B2:B8)</f>
+        <v>3.3477629212258595</v>
+      </c>
+      <c r="N6" s="14">
+        <f t="shared" ref="N6:T6" si="0">_xlfn.STDEV.P(C2:C8)</f>
+        <v>0.52489065916782385</v>
+      </c>
+      <c r="O6" s="14">
+        <f t="shared" si="0"/>
+        <v>3.0167935877385466</v>
+      </c>
+      <c r="P6" s="14">
+        <f t="shared" si="0"/>
+        <v>0.65187531673735633</v>
+      </c>
+      <c r="Q6" s="14">
+        <f t="shared" si="0"/>
+        <v>0.64681322415267262</v>
+      </c>
+      <c r="R6" s="14">
+        <f t="shared" si="0"/>
+        <v>1.2453996981544782</v>
+      </c>
+      <c r="S6" s="14">
+        <f t="shared" si="0"/>
+        <v>0.90350790290525129</v>
+      </c>
+      <c r="T6" s="15">
+        <f t="shared" si="0"/>
+        <v>13.593215594703176</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>17</v>
+      </c>
+      <c r="B7" s="4">
+        <v>8.2463999999999995</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="D7" s="4">
+        <v>5.15</v>
+      </c>
+      <c r="E7" s="4">
+        <v>1.6639999999999999</v>
+      </c>
+      <c r="F7" s="1">
+        <v>2</v>
+      </c>
+      <c r="G7" s="1">
+        <v>8</v>
+      </c>
+      <c r="H7" s="1">
+        <v>4</v>
+      </c>
+      <c r="I7" s="1">
+        <v>50</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L7" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="M7" s="17">
+        <f>AVERAGE(B2:B8)</f>
+        <v>7.3327428571428568</v>
+      </c>
+      <c r="N7" s="17">
+        <f t="shared" ref="N7:T7" si="1">AVERAGE(C2:C8)</f>
+        <v>1.2857142857142858</v>
+      </c>
+      <c r="O7" s="17">
+        <f t="shared" si="1"/>
+        <v>6.1038571428571426</v>
+      </c>
+      <c r="P7" s="17">
+        <f t="shared" si="1"/>
+        <v>1.5050000000000001</v>
+      </c>
+      <c r="Q7" s="17">
+        <f t="shared" si="1"/>
+        <v>1.2142857142857142</v>
+      </c>
+      <c r="R7" s="17">
+        <f t="shared" si="1"/>
+        <v>6.8571428571428568</v>
+      </c>
+      <c r="S7" s="17">
+        <f t="shared" si="1"/>
+        <v>3.4285714285714284</v>
+      </c>
+      <c r="T7" s="18">
+        <f t="shared" si="1"/>
+        <v>38.714285714285715</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>20</v>
+      </c>
+      <c r="B8" s="4">
+        <v>9.0383999999999993</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="4">
+        <v>7.8</v>
+      </c>
+      <c r="E8" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="G8" s="1">
+        <v>7</v>
+      </c>
+      <c r="H8" s="1">
+        <v>3</v>
+      </c>
+      <c r="I8" s="1">
+        <v>23</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" s="19"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="12"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>3</v>
+      </c>
+      <c r="B9" s="6">
+        <v>4.5429000000000004</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1</v>
+      </c>
+      <c r="D9" s="6">
+        <v>2.2749999999999999</v>
+      </c>
+      <c r="E9" s="6">
+        <v>1.175</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1</v>
+      </c>
+      <c r="G9" s="3">
+        <v>6</v>
+      </c>
+      <c r="H9" s="3">
+        <v>3</v>
+      </c>
+      <c r="I9" s="3">
+        <v>40</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L9" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="M9" s="27"/>
+      <c r="N9" s="27"/>
+      <c r="O9" s="27"/>
+      <c r="P9" s="27"/>
+      <c r="Q9" s="27"/>
+      <c r="R9" s="27"/>
+      <c r="S9" s="27"/>
+      <c r="T9" s="28"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>6</v>
+      </c>
+      <c r="B10" s="6">
+        <v>3.891</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1</v>
+      </c>
+      <c r="D10" s="6">
+        <v>4.4550000000000001</v>
+      </c>
+      <c r="E10" s="6">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1</v>
+      </c>
+      <c r="G10" s="3">
+        <v>6</v>
+      </c>
+      <c r="H10" s="3">
+        <v>3</v>
+      </c>
+      <c r="I10" s="3">
+        <v>56</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L10" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="M10" s="14">
+        <f>_xlfn.STDEV.P(B9:B14)</f>
+        <v>4.2094741167989129</v>
+      </c>
+      <c r="N10" s="14">
+        <f>_xlfn.STDEV.P(C9:C14)</f>
+        <v>0.55277079839256671</v>
+      </c>
+      <c r="O10" s="14">
+        <f t="shared" ref="O10:T10" si="2">_xlfn.STDEV.P(D9:D14)</f>
+        <v>2.3230532829781474</v>
+      </c>
+      <c r="P10" s="14">
+        <f t="shared" si="2"/>
+        <v>0.84298273344647323</v>
+      </c>
+      <c r="Q10" s="14">
+        <f t="shared" si="2"/>
+        <v>0.47140452079103168</v>
+      </c>
+      <c r="R10" s="14">
+        <f t="shared" si="2"/>
+        <v>1.4624940645653537</v>
+      </c>
+      <c r="S10" s="14">
+        <f t="shared" si="2"/>
+        <v>0.7453559924999299</v>
+      </c>
+      <c r="T10" s="15">
+        <f t="shared" si="2"/>
+        <v>12.736648783028533</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>7</v>
+      </c>
+      <c r="B11" s="6">
+        <v>5.8979999999999997</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1</v>
+      </c>
+      <c r="D11" s="6">
+        <v>5.85</v>
+      </c>
+      <c r="E11" s="6">
+        <v>1.24</v>
+      </c>
+      <c r="F11" s="3">
+        <v>1</v>
+      </c>
+      <c r="G11" s="3">
+        <v>7</v>
+      </c>
+      <c r="H11" s="3">
+        <v>3</v>
+      </c>
+      <c r="I11" s="3">
+        <v>51</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L11" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="M11" s="17">
+        <f>AVERAGE(B9:B14)</f>
+        <v>7.4159000000000006</v>
+      </c>
+      <c r="N11" s="17">
+        <f t="shared" ref="N11:T11" si="3">AVERAGE(C9:C14)</f>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="O11" s="17">
+        <f t="shared" si="3"/>
+        <v>6.0246666666666675</v>
+      </c>
+      <c r="P11" s="17">
+        <f t="shared" si="3"/>
+        <v>1.5533333333333335</v>
+      </c>
+      <c r="Q11" s="17">
+        <f>AVERAGE(F9:F14)</f>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="R11" s="17">
+        <f t="shared" si="3"/>
+        <v>6.833333333333333</v>
+      </c>
+      <c r="S11" s="17">
+        <f t="shared" si="3"/>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="T11" s="18">
+        <f t="shared" si="3"/>
+        <v>39.666666666666664</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>9</v>
+      </c>
+      <c r="B12" s="6">
+        <v>16.420200000000001</v>
+      </c>
+      <c r="C12" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="D12" s="6">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="E12" s="6">
+        <v>3.42</v>
+      </c>
+      <c r="F12" s="3">
+        <v>2</v>
+      </c>
+      <c r="G12" s="3">
+        <v>10</v>
+      </c>
+      <c r="H12" s="3">
+        <v>5</v>
+      </c>
+      <c r="I12" s="3">
+        <v>42</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L12" s="19"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="12"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>14</v>
+      </c>
+      <c r="B13" s="6">
+        <v>5.9592000000000001</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1</v>
+      </c>
+      <c r="D13" s="6">
+        <v>6.6660000000000004</v>
+      </c>
+      <c r="E13" s="6">
+        <v>1.121</v>
+      </c>
+      <c r="F13" s="3">
+        <v>2</v>
+      </c>
+      <c r="G13" s="3">
+        <v>6</v>
+      </c>
+      <c r="H13" s="3">
+        <v>3</v>
+      </c>
+      <c r="I13" s="3">
+        <v>32</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L13" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="M13" s="29"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="29"/>
+      <c r="P13" s="29"/>
+      <c r="Q13" s="29"/>
+      <c r="R13" s="29"/>
+      <c r="S13" s="29"/>
+      <c r="T13" s="30"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>19</v>
+      </c>
+      <c r="B14" s="6">
+        <v>7.7840999999999996</v>
+      </c>
+      <c r="C14" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="D14" s="6">
+        <v>7.1020000000000003</v>
+      </c>
+      <c r="E14" s="6">
+        <v>1.3759999999999999</v>
+      </c>
+      <c r="F14" s="3">
+        <v>1</v>
+      </c>
+      <c r="G14" s="3">
+        <v>6</v>
+      </c>
+      <c r="H14" s="3">
+        <v>3</v>
+      </c>
+      <c r="I14" s="3">
+        <v>17</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L14" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="M14" s="14">
+        <f>_xlfn.STDEV.P(B15:B21)</f>
+        <v>0.52782973135862898</v>
+      </c>
+      <c r="N14" s="14">
+        <f t="shared" ref="N14:S14" si="4">_xlfn.STDEV.P(C15:C21)</f>
+        <v>0.1749635530559413</v>
+      </c>
+      <c r="O14" s="14">
+        <f t="shared" si="4"/>
+        <v>2.0821446093597138</v>
+      </c>
+      <c r="P14" s="14">
+        <f t="shared" si="4"/>
+        <v>0.19712919207298393</v>
+      </c>
+      <c r="Q14" s="14">
+        <f>_xlfn.STDEV.P(F15:F21)</f>
+        <v>0.77591289222858684</v>
+      </c>
+      <c r="R14" s="14">
+        <f t="shared" si="4"/>
+        <v>0.63887656499993994</v>
+      </c>
+      <c r="S14" s="14">
+        <f t="shared" si="4"/>
+        <v>0.53452248382484879</v>
+      </c>
+      <c r="T14" s="15">
+        <f>_xlfn.STDEV.P(I3,I9,I12,I13,I14,I17,I19)</f>
+        <v>10.69999046347086</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>2</v>
+      </c>
+      <c r="B15" s="5">
         <v>5.0208000000000004</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
+      <c r="C15" s="2">
+        <v>1</v>
+      </c>
+      <c r="D15" s="5">
         <v>3.5310000000000001</v>
       </c>
-      <c r="E3">
+      <c r="E15" s="5">
         <v>1.5</v>
       </c>
-      <c r="F3">
+      <c r="F15" s="2">
         <v>2</v>
       </c>
-      <c r="G3">
+      <c r="G15" s="2">
         <v>7</v>
       </c>
-      <c r="H3">
+      <c r="H15" s="2">
         <v>4</v>
       </c>
-      <c r="I3">
+      <c r="I15" s="2">
         <v>62</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J15" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="L15" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="M15" s="23">
+        <f>AVERAGE(B15:B21)</f>
+        <v>5.7607428571428576</v>
+      </c>
+      <c r="N15" s="23">
+        <f t="shared" ref="N15:S15" si="5">AVERAGE(C15:C21)</f>
+        <v>1.0714285714285714</v>
+      </c>
+      <c r="O15" s="23">
+        <f>AVERAGE(D15:D21)</f>
+        <v>6.6308999999999996</v>
+      </c>
+      <c r="P15" s="23">
+        <f t="shared" si="5"/>
+        <v>1.3917142857142857</v>
+      </c>
+      <c r="Q15" s="23">
+        <f t="shared" si="5"/>
+        <v>1.0714285714285714</v>
+      </c>
+      <c r="R15" s="23">
+        <f t="shared" si="5"/>
+        <v>6.1428571428571432</v>
+      </c>
+      <c r="S15" s="23">
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>4.5429000000000004</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>2.2749999999999999</v>
-      </c>
-      <c r="E4">
-        <v>1.175</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
+      <c r="T15" s="24">
+        <f>AVERAGE(I3,I9,I12,I14,I13,I17,I19)</f>
+        <v>35.285714285714285</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <v>8</v>
+      </c>
+      <c r="B16" s="5">
+        <v>5.6039000000000003</v>
+      </c>
+      <c r="C16" s="2">
+        <v>1</v>
+      </c>
+      <c r="D16" s="5">
+        <v>9.52</v>
+      </c>
+      <c r="E16" s="5">
+        <v>1.5009999999999999</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0</v>
+      </c>
+      <c r="G16" s="2">
         <v>6</v>
       </c>
-      <c r="H4">
+      <c r="H16" s="2">
         <v>3</v>
       </c>
-      <c r="I4">
-        <v>40</v>
-      </c>
-      <c r="J4" t="s">
+      <c r="I16" s="2">
+        <v>32</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
+        <v>11</v>
+      </c>
+      <c r="B17" s="5">
+        <v>5.8281999999999998</v>
+      </c>
+      <c r="C17" s="2">
+        <v>1</v>
+      </c>
+      <c r="D17" s="5">
+        <v>6.4349999999999996</v>
+      </c>
+      <c r="E17" s="5">
+        <v>1.2250000000000001</v>
+      </c>
+      <c r="F17" s="2">
+        <v>2</v>
+      </c>
+      <c r="G17" s="2">
+        <v>6</v>
+      </c>
+      <c r="H17" s="2">
+        <v>3</v>
+      </c>
+      <c r="I17" s="2">
+        <v>32</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>4.5572999999999997</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>4.05</v>
-      </c>
-      <c r="E5">
-        <v>1.232</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
+      <c r="B18" s="5">
+        <v>5.3003</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1</v>
+      </c>
+      <c r="D18" s="5">
+        <v>4.9882999999999997</v>
+      </c>
+      <c r="E18" s="5">
+        <v>1.552</v>
+      </c>
+      <c r="F18" s="2">
+        <v>1</v>
+      </c>
+      <c r="G18" s="2">
         <v>6</v>
       </c>
-      <c r="H5">
+      <c r="H18" s="2">
         <v>3</v>
       </c>
-      <c r="I5">
-        <v>54</v>
-      </c>
-      <c r="J5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="I18" s="2">
+        <v>30</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
+        <v>13</v>
+      </c>
+      <c r="B19" s="5">
+        <v>6.2712000000000003</v>
+      </c>
+      <c r="C19" s="2">
+        <v>1</v>
+      </c>
+      <c r="D19" s="5">
+        <v>5.52</v>
+      </c>
+      <c r="E19" s="5">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="F19" s="2">
+        <v>1</v>
+      </c>
+      <c r="G19" s="2">
         <v>5</v>
       </c>
-      <c r="B6">
-        <v>5.0597000000000003</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>4.4550000000000001</v>
-      </c>
-      <c r="E6">
-        <v>1.121</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
+      <c r="H19" s="2">
+        <v>2</v>
+      </c>
+      <c r="I19" s="2">
+        <v>30</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
+        <v>16</v>
+      </c>
+      <c r="B20" s="5">
+        <v>5.6039000000000003</v>
+      </c>
+      <c r="C20" s="2">
+        <v>1</v>
+      </c>
+      <c r="D20" s="5">
+        <v>9.52</v>
+      </c>
+      <c r="E20" s="5">
+        <v>1.5009999999999999</v>
+      </c>
+      <c r="F20" s="2">
+        <v>0</v>
+      </c>
+      <c r="G20" s="2">
         <v>6</v>
       </c>
-      <c r="H6">
+      <c r="H20" s="2">
         <v>3</v>
       </c>
-      <c r="I6">
-        <v>42</v>
-      </c>
-      <c r="J6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>3.891</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>4.4550000000000001</v>
-      </c>
-      <c r="E7">
-        <v>0.98799999999999999</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>6</v>
-      </c>
-      <c r="H7">
+      <c r="I20" s="2">
+        <v>32</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
+        <v>18</v>
+      </c>
+      <c r="B21" s="5">
+        <v>6.6969000000000003</v>
+      </c>
+      <c r="C21" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="D21" s="5">
+        <v>6.9020000000000001</v>
+      </c>
+      <c r="E21" s="5">
+        <v>1.488</v>
+      </c>
+      <c r="F21" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="G21" s="2">
+        <v>7</v>
+      </c>
+      <c r="H21" s="2">
         <v>3</v>
       </c>
-      <c r="I7">
-        <v>56</v>
-      </c>
-      <c r="J7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>5.8979999999999997</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>5.85</v>
-      </c>
-      <c r="E8">
-        <v>1.24</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>7</v>
-      </c>
-      <c r="H8">
-        <v>3</v>
-      </c>
-      <c r="I8">
-        <v>51</v>
-      </c>
-      <c r="J8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>5.6039000000000003</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>9.52</v>
-      </c>
-      <c r="E9">
-        <v>1.5009999999999999</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>6</v>
-      </c>
-      <c r="H9">
-        <v>3</v>
-      </c>
-      <c r="I9">
-        <v>32</v>
-      </c>
-      <c r="J9" t="s">
+      <c r="I21" s="2">
+        <v>22</v>
+      </c>
+      <c r="J21" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>16.420200000000001</v>
-      </c>
-      <c r="C10">
-        <v>2.5</v>
-      </c>
-      <c r="D10">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="E10">
-        <v>3.42</v>
-      </c>
-      <c r="F10">
-        <v>2</v>
-      </c>
-      <c r="G10">
-        <v>10</v>
-      </c>
-      <c r="H10">
-        <v>5</v>
-      </c>
-      <c r="I10">
-        <v>42</v>
-      </c>
-      <c r="J10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>14.4598</v>
-      </c>
-      <c r="C11">
-        <v>2.5</v>
-      </c>
-      <c r="D11">
-        <v>12.8</v>
-      </c>
-      <c r="E11">
-        <v>3</v>
-      </c>
-      <c r="F11">
-        <v>2</v>
-      </c>
-      <c r="G11">
-        <v>9</v>
-      </c>
-      <c r="H11">
-        <v>5</v>
-      </c>
-      <c r="I11">
-        <v>14</v>
-      </c>
-      <c r="J11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>5.8281999999999998</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <v>6.4349999999999996</v>
-      </c>
-      <c r="E12">
-        <v>1.2250000000000001</v>
-      </c>
-      <c r="F12">
-        <v>2</v>
-      </c>
-      <c r="G12">
-        <v>6</v>
-      </c>
-      <c r="H12">
-        <v>3</v>
-      </c>
-      <c r="I12">
-        <v>32</v>
-      </c>
-      <c r="J12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>5.3003</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13">
-        <v>4.9882999999999997</v>
-      </c>
-      <c r="E13">
-        <v>1.552</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>6</v>
-      </c>
-      <c r="H13">
-        <v>3</v>
-      </c>
-      <c r="I13">
-        <v>30</v>
-      </c>
-      <c r="J13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>6.2712000000000003</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <v>5.52</v>
-      </c>
-      <c r="E14">
-        <v>0.97499999999999998</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>5</v>
-      </c>
-      <c r="H14">
-        <v>2</v>
-      </c>
-      <c r="I14">
-        <v>30</v>
-      </c>
-      <c r="J14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>5.9592000000000001</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15">
-        <v>6.6660000000000004</v>
-      </c>
-      <c r="E15">
-        <v>1.121</v>
-      </c>
-      <c r="F15">
-        <v>2</v>
-      </c>
-      <c r="G15">
-        <v>6</v>
-      </c>
-      <c r="H15">
-        <v>3</v>
-      </c>
-      <c r="I15">
-        <v>32</v>
-      </c>
-      <c r="J15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>5.05</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16">
-        <v>5</v>
-      </c>
-      <c r="E16">
-        <v>1.02</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>5</v>
-      </c>
-      <c r="H16">
-        <v>2</v>
-      </c>
-      <c r="I16">
-        <v>46</v>
-      </c>
-      <c r="J16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>5.6039000000000003</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17">
-        <v>9.52</v>
-      </c>
-      <c r="E17">
-        <v>1.5009999999999999</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>6</v>
-      </c>
-      <c r="H17">
-        <v>3</v>
-      </c>
-      <c r="I17">
-        <v>32</v>
-      </c>
-      <c r="J17" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <v>8.2463999999999995</v>
-      </c>
-      <c r="C18">
-        <v>1.5</v>
-      </c>
-      <c r="D18">
-        <v>5.15</v>
-      </c>
-      <c r="E18">
-        <v>1.6639999999999999</v>
-      </c>
-      <c r="F18">
-        <v>2</v>
-      </c>
-      <c r="G18">
-        <v>8</v>
-      </c>
-      <c r="H18">
-        <v>4</v>
-      </c>
-      <c r="I18">
-        <v>50</v>
-      </c>
-      <c r="J18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>6.6969000000000003</v>
-      </c>
-      <c r="C19">
-        <v>1.5</v>
-      </c>
-      <c r="D19">
-        <v>6.9020000000000001</v>
-      </c>
-      <c r="E19">
-        <v>1.488</v>
-      </c>
-      <c r="F19">
-        <v>1.5</v>
-      </c>
-      <c r="G19">
-        <v>7</v>
-      </c>
-      <c r="H19">
-        <v>3</v>
-      </c>
-      <c r="I19">
-        <v>22</v>
-      </c>
-      <c r="J19" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <v>7.7840999999999996</v>
-      </c>
-      <c r="C20">
-        <v>1.5</v>
-      </c>
-      <c r="D20">
-        <v>7.1020000000000003</v>
-      </c>
-      <c r="E20">
-        <v>1.3759999999999999</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>6</v>
-      </c>
-      <c r="H20">
-        <v>3</v>
-      </c>
-      <c r="I20">
-        <v>17</v>
-      </c>
-      <c r="J20" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21">
-        <v>9.0383999999999993</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21">
-        <v>7.8</v>
-      </c>
-      <c r="E21">
-        <v>1.5</v>
-      </c>
-      <c r="F21">
-        <v>1.5</v>
-      </c>
-      <c r="G21">
-        <v>7</v>
-      </c>
-      <c r="H21">
-        <v>3</v>
-      </c>
-      <c r="I21">
-        <v>23</v>
-      </c>
-      <c r="J21" t="s">
-        <v>10</v>
-      </c>
-    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J21">
+    <sortCondition ref="J2:J21"/>
+  </sortState>
+  <conditionalFormatting sqref="L30">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Apartment">
+      <formula>NOT(ISERROR(SEARCH("Apartment",L30)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
